--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_234.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_234.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,416 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.58, 14.56)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.480000', '0:00:25.940000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08809523809523809</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B', 'B/7', 'B/6']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[['A', 'A', 'A/b7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[('0:00:00.440395', '0:00:02.746326')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:36.173061', '0:00:41.861950')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[('0:00:01.680000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -888,315 +906,276 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(102.76, 118.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.94, 16.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
